--- a/error_counts/biodivner/Meta-Llama-3.1-405B-Instruct/random_3_parsed_output/tokens_potential.xlsx
+++ b/error_counts/biodivner/Meta-Llama-3.1-405B-Instruct/random_3_parsed_output/tokens_potential.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C722"/>
+  <dimension ref="A1:C721"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6918,12 +6918,12 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t xml:space="preserve"> basal diameter</t>
+          <t>dead wood</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C433" t="n">
@@ -6933,12 +6933,12 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>dead wood</t>
+          <t>life expectancy</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C434" t="n">
@@ -6948,12 +6948,12 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>life expectancy</t>
+          <t>North American</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C435" t="n">
@@ -6963,12 +6963,12 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>North American</t>
+          <t>zoo</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C436" t="n">
@@ -6978,12 +6978,12 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>zoo</t>
+          <t>vertebrate animals</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C437" t="n">
@@ -6993,12 +6993,12 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>vertebrate animals</t>
+          <t>median life expectancies</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C438" t="n">
@@ -7008,12 +7008,12 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>median life expectancies</t>
+          <t>ex situ populations</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C439" t="n">
@@ -7023,7 +7023,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>ex situ populations</t>
+          <t>Woody debris</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -7032,33 +7032,33 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Woody debris</t>
+          <t>LÃƒÂ¼neburg</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C441" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>LÃƒÂ¼neburg</t>
+          <t>Andreas Schuldt</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C442" t="n">
@@ -7068,7 +7068,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Andreas Schuldt</t>
+          <t>German Centre for Integrative Biodiversity Research</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -7083,7 +7083,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>German Centre for Integrative Biodiversity Research</t>
+          <t>iDiv</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -7098,7 +7098,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>iDiv</t>
+          <t>Michael Staab</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -7113,7 +7113,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Michael Staab</t>
+          <t>University of Freiburg</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -7128,7 +7128,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>University of Freiburg</t>
+          <t>Chair of Nature Conservation and Landscape Ecology</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -7143,12 +7143,12 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Chair of Nature Conservation and Landscape Ecology</t>
+          <t>extraction</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C448" t="n">
@@ -7158,72 +7158,72 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>extraction</t>
+          <t>variation</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C449" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>variation</t>
+          <t>land-use type</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C450" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>land-use type</t>
+          <t>diversity</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C451" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>diversity</t>
+          <t>soil biota</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C452" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>soil biota</t>
+          <t>checklist</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C453" t="n">
@@ -7233,7 +7233,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>checklist</t>
+          <t>baseline</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -7248,12 +7248,12 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>baseline</t>
+          <t>environmental changes</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C455" t="n">
@@ -7263,12 +7263,12 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>environmental changes</t>
+          <t>target groups</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C456" t="n">
@@ -7278,7 +7278,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>target groups</t>
+          <t>Chlamydia caviae</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -7293,22 +7293,22 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Chlamydia caviae</t>
+          <t>infection</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C458" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>infection</t>
+          <t>defense</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -7317,18 +7317,18 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>defense</t>
+          <t>pathogens</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C460" t="n">
@@ -7338,7 +7338,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>pathogens</t>
+          <t>Chlamydia trachomatis</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
@@ -7353,7 +7353,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Chlamydia trachomatis</t>
+          <t>decomposer</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -7368,12 +7368,12 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>decomposer</t>
+          <t>trait variability</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C463" t="n">
@@ -7383,7 +7383,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>trait variability</t>
+          <t>covariations</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -7398,7 +7398,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>covariations</t>
+          <t>grain size classes</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -7413,12 +7413,12 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>grain size classes</t>
+          <t>fine earth</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C466" t="n">
@@ -7428,12 +7428,12 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>fine earth</t>
+          <t>Decision-makers</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C467" t="n">
@@ -7443,12 +7443,12 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Decision-makers</t>
+          <t>forest biodiversity</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C468" t="n">
@@ -7458,12 +7458,12 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>forest biodiversity</t>
+          <t>ground-based plots</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C469" t="n">
@@ -7473,7 +7473,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>ground-based plots</t>
+          <t>CWD</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -7488,12 +7488,12 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>CWD</t>
+          <t>wildlife trade</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C471" t="n">
@@ -7503,7 +7503,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>wildlife trade</t>
+          <t>stress</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -7518,12 +7518,12 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>stress</t>
+          <t>income</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C473" t="n">
@@ -7533,12 +7533,12 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>income</t>
+          <t>marine conservation</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C474" t="n">
@@ -7548,12 +7548,12 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>marine conservation</t>
+          <t>artefacts</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C475" t="n">
@@ -7563,12 +7563,12 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>artefacts</t>
+          <t>amoebae</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C476" t="n">
@@ -7578,7 +7578,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>amoebae</t>
+          <t>intra-amoebal bacteria</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -7593,12 +7593,12 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>intra-amoebal bacteria</t>
+          <t>drinking water network</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C478" t="n">
@@ -7608,12 +7608,12 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>drinking water network</t>
+          <t>microbiome</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C479" t="n">
@@ -7623,7 +7623,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>microbiome</t>
+          <t>environmental strains</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -7638,42 +7638,42 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>environmental strains</t>
+          <t>CSP</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C481" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>CSP</t>
+          <t>trait variation</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C482" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>trait variation</t>
+          <t>relationship</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C483" t="n">
@@ -7683,7 +7683,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>relationship</t>
+          <t>trade-off</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -7698,7 +7698,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>trade-off</t>
+          <t>evolutionary constraints</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -7713,7 +7713,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>evolutionary constraints</t>
+          <t>carbon allocation constraints</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -7728,12 +7728,12 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>carbon allocation constraints</t>
+          <t>compound</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C487" t="n">
@@ -7743,12 +7743,12 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>compound</t>
+          <t>target pathogen</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C488" t="n">
@@ -7758,12 +7758,12 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>target pathogen</t>
+          <t>biochemical mode of action</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C489" t="n">
@@ -7773,12 +7773,12 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>biochemical mode of action</t>
+          <t>complexity</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C490" t="n">
@@ -7788,12 +7788,12 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>complexity</t>
+          <t>phenomena</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C491" t="n">
@@ -7803,12 +7803,12 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>phenomena</t>
+          <t>qscore</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C492" t="n">
@@ -7818,12 +7818,12 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>qscore</t>
+          <t>data/nfa_2018_edition.csv</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C493" t="n">
@@ -7833,22 +7833,22 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>data/nfa_2018_edition.csv</t>
+          <t>csv</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C494" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>csv</t>
+          <t>code</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -7857,18 +7857,18 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>code</t>
+          <t>original/GFN</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C496" t="n">
@@ -7878,12 +7878,12 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>original/GFN</t>
+          <t>concordance table.csv</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C497" t="n">
@@ -7893,7 +7893,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>concordance table.csv</t>
+          <t>text/csv</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
@@ -7908,12 +7908,12 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>text/csv</t>
+          <t>original/NFA</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C499" t="n">
@@ -7923,12 +7923,12 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>original/NFA</t>
+          <t>2018 Edition.csv</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C500" t="n">
@@ -7938,12 +7938,12 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>2018 Edition.csv</t>
+          <t>earth</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C501" t="n">
@@ -7953,7 +7953,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>earth</t>
+          <t>planet</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -7962,13 +7962,13 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>planet</t>
+          <t>international government</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -7983,12 +7983,12 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>international government</t>
+          <t>infrastructure</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C504" t="n">
@@ -7998,12 +7998,12 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>infrastructure</t>
+          <t>anthropogenic</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C505" t="n">
@@ -8013,12 +8013,12 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>anthropogenic</t>
+          <t>lithology classes</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C506" t="n">
@@ -8028,12 +8028,12 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>lithology classes</t>
+          <t>USGS</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C507" t="n">
@@ -8043,12 +8043,12 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>USGS</t>
+          <t>map</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C508" t="n">
@@ -8058,7 +8058,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>map</t>
+          <t>Surficial Materials</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -8073,12 +8073,12 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Surficial Materials</t>
+          <t>Conterminous United States</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C510" t="n">
@@ -8088,12 +8088,12 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Conterminous United States</t>
+          <t>internal structure</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C511" t="n">
@@ -8103,12 +8103,12 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>internal structure</t>
+          <t>formation</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C512" t="n">
@@ -8118,12 +8118,12 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>formation</t>
+          <t>materials</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C513" t="n">
@@ -8133,12 +8133,12 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>materials</t>
+          <t>Number</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C514" t="n">
@@ -8148,7 +8148,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Number</t>
+          <t>The Directive</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
@@ -8163,7 +8163,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>The Directive</t>
+          <t>Irish Law</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -8178,12 +8178,12 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Irish Law</t>
+          <t>European Communities</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C517" t="n">
@@ -8193,12 +8193,12 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>European Communities</t>
+          <t>Health of Aquaculture Animals and Products</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C518" t="n">
@@ -8208,7 +8208,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Health of Aquaculture Animals and Products</t>
+          <t>Regulations 2008</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
@@ -8223,12 +8223,12 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Regulations 2008</t>
+          <t>Sierra Leonean national park</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C520" t="n">
@@ -8238,12 +8238,12 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Sierra Leonean national park</t>
+          <t>Shannon-Wiener biodiversity indices</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C521" t="n">
@@ -8253,37 +8253,37 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Shannon-Wiener biodiversity indices</t>
+          <t>PLFA</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C522" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>PLFA</t>
+          <t>Anja Fankhänel</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C523" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Anja Fankhänel</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
@@ -8298,7 +8298,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>Goddert</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -8313,12 +8313,12 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Goddert</t>
+          <t>fungal abundance</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C526" t="n">
@@ -8328,12 +8328,12 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>fungal abundance</t>
+          <t>environmental parameters</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C527" t="n">
@@ -8343,12 +8343,12 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>environmental parameters</t>
+          <t>Intermountain West</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C528" t="n">
@@ -8358,12 +8358,12 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Intermountain West</t>
+          <t>branch</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C529" t="n">
@@ -8373,7 +8373,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>branch</t>
+          <t>branches</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
@@ -8388,7 +8388,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>branches</t>
+          <t>Hemiptera</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
@@ -8403,27 +8403,27 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Hemiptera</t>
+          <t>foundation</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C532" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>foundation</t>
+          <t>building material</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C533" t="n">
@@ -8433,27 +8433,27 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>building material</t>
+          <t>Levantine Basin</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C534" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Levantine Basin</t>
+          <t>sand</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C535" t="n">
@@ -8463,7 +8463,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>sand</t>
+          <t>KÃƒÂ¶hn pipette</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
@@ -8478,7 +8478,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>KÃƒÂ¶hn pipette</t>
+          <t>drying oven</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
@@ -8493,7 +8493,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>drying oven</t>
+          <t>balance</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
@@ -8508,12 +8508,12 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>balance</t>
+          <t>Ant species</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C539" t="n">
@@ -8523,12 +8523,12 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Ant species</t>
+          <t>species level</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C540" t="n">
@@ -8538,7 +8538,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>species level</t>
+          <t>taxonomic literature</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
@@ -8553,12 +8553,12 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>taxonomic literature</t>
+          <t>N-fixation</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C542" t="n">
@@ -8568,12 +8568,12 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>N-fixation</t>
+          <t>species origin</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C543" t="n">
@@ -8583,12 +8583,12 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>species origin</t>
+          <t>forest restoration</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C544" t="n">
@@ -8598,7 +8598,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>forest restoration</t>
+          <t>community evolution</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
@@ -8613,7 +8613,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>community evolution</t>
+          <t>models</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
@@ -8628,7 +8628,7 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>models</t>
+          <t>metagenomic descriptions</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
@@ -8643,12 +8643,12 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>metagenomic descriptions</t>
+          <t>holobiont communities</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C548" t="n">
@@ -8658,12 +8658,12 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>holobiont communities</t>
+          <t>barcode sequences</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C549" t="n">
@@ -8673,12 +8673,12 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>barcode sequences</t>
+          <t>human population</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C550" t="n">
@@ -8688,12 +8688,12 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>human population</t>
+          <t>land-use</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C551" t="n">
@@ -8703,12 +8703,12 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>land-use</t>
+          <t>invasive species</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C552" t="n">
@@ -8718,12 +8718,12 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>invasive species</t>
+          <t>habitat fragmentation</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C553" t="n">
@@ -8733,7 +8733,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>habitat fragmentation</t>
+          <t>experiments</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
@@ -8748,12 +8748,12 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>experiments</t>
+          <t>marine hard bottom communities</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C555" t="n">
@@ -8763,12 +8763,12 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>marine hard bottom communities</t>
+          <t>environments</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C556" t="n">
@@ -8778,12 +8778,12 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>environments</t>
+          <t>findings</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C557" t="n">
@@ -8793,12 +8793,12 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>findings</t>
+          <t>C. caviae</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C558" t="n">
@@ -8808,12 +8808,12 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>C. caviae</t>
+          <t>community composition</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C559" t="n">
@@ -8823,12 +8823,12 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>community composition</t>
+          <t>logged forest</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C560" t="n">
@@ -8838,7 +8838,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>logged forest</t>
+          <t>monocultures</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
@@ -8847,33 +8847,33 @@
         </is>
       </c>
       <c r="C561" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>monocultures</t>
+          <t>juveniles</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C562" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>juveniles</t>
+          <t>home</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C563" t="n">
@@ -8883,7 +8883,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>home</t>
+          <t>away</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
@@ -8898,12 +8898,12 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>away</t>
+          <t>levels</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C565" t="n">
@@ -8913,7 +8913,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>levels</t>
+          <t>Main Experiment</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
@@ -8928,7 +8928,7 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>Main Experiment</t>
+          <t>Seedling addition experiment</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
@@ -8943,12 +8943,12 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>Seedling addition experiment</t>
+          <t>common garden experiment</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C568" t="n">
@@ -8958,7 +8958,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>common garden experiment</t>
+          <t>shadow treatment</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
@@ -8973,7 +8973,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>shadow treatment</t>
+          <t>Sand-filled splash cups</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
@@ -8988,37 +8988,37 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>Sand-filled splash cups</t>
+          <t>CSP26</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C571" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>CSP26</t>
+          <t>ecotones</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C572" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>ecotones</t>
+          <t>ecotone</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
@@ -9033,7 +9033,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>ecotone</t>
+          <t>Forest Ecology and Management</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
@@ -9048,12 +9048,12 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>Forest Ecology and Management</t>
+          <t>Martin and Ek</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C575" t="n">
@@ -9063,12 +9063,12 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Martin and Ek</t>
+          <t>Competition index</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C576" t="n">
@@ -9078,12 +9078,12 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>Competition index</t>
+          <t>Individual tree</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C577" t="n">
@@ -9093,12 +9093,12 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>Individual tree</t>
+          <t>monomethylarsonic acid</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C578" t="n">
@@ -9108,7 +9108,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>monomethylarsonic acid</t>
+          <t>MMAV</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
@@ -9123,7 +9123,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>MMAV</t>
+          <t>monomethylarsonous acid</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
@@ -9138,7 +9138,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>monomethylarsonous acid</t>
+          <t>MMAIII</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
@@ -9153,42 +9153,42 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>MMAIII</t>
+          <t>plot estimate</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C582" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>plot estimate</t>
+          <t>allometries</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C583" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>allometries</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C584" t="n">
@@ -9198,12 +9198,12 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>broad-leaved forests</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C585" t="n">
@@ -9213,42 +9213,42 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>broad-leaved forests</t>
+          <t>successional stages</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C586" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>successional stages</t>
+          <t>carbon-based leaf defence traits</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C587" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>carbon-based leaf defence traits</t>
+          <t>data analysis</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C588" t="n">
@@ -9258,7 +9258,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>data analysis</t>
+          <t>Experiment</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
@@ -9273,12 +9273,12 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>Experiment</t>
+          <t>Site A &amp; B</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C590" t="n">
@@ -9288,22 +9288,22 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>Site A &amp; B</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C591" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>Samplecode</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
@@ -9312,18 +9312,18 @@
         </is>
       </c>
       <c r="C592" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>Samplecode</t>
+          <t>sample</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C593" t="n">
@@ -9333,22 +9333,22 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>Combination of characters and number</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C594" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>Combination of characters and number</t>
+          <t>Sample.Collector</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
@@ -9357,13 +9357,13 @@
         </is>
       </c>
       <c r="C595" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>Sample.Collector</t>
+          <t>Helper column</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
@@ -9372,13 +9372,13 @@
         </is>
       </c>
       <c r="C596" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>Helper column</t>
+          <t>data set</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
@@ -9393,7 +9393,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>data set</t>
+          <t>plant species name</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
@@ -9402,13 +9402,13 @@
         </is>
       </c>
       <c r="C598" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>plant species name</t>
+          <t>species fullnames</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
@@ -9423,7 +9423,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>species fullnames</t>
+          <t>Flora of China</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
@@ -9438,12 +9438,12 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>Flora of China</t>
+          <t>diversity-multi-functionality relationships</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C601" t="n">
@@ -9453,12 +9453,12 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>diversity-multi-functionality relationships</t>
+          <t>fallow</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C602" t="n">
@@ -9468,12 +9468,12 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>fallow</t>
+          <t>management</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C603" t="n">
@@ -9483,7 +9483,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>management</t>
+          <t>literature analysis</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
@@ -9498,12 +9498,12 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>literature analysis</t>
+          <t>marine ecosystem</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C605" t="n">
@@ -9513,22 +9513,22 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>marine ecosystem</t>
+          <t>Fish Health Unit</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C606" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>Fish Health Unit</t>
+          <t>finfish</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
@@ -9543,27 +9543,27 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>finfish</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C608" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Fish Health regulations</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C609" t="n">
@@ -9573,7 +9573,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>Fish Health regulations</t>
+          <t>Fish Health monitoring</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
@@ -9588,7 +9588,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>Fish Health monitoring</t>
+          <t>trophobioses</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
@@ -9603,12 +9603,12 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>trophobioses</t>
+          <t>Biodiversity Conservation Hotspot</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C612" t="n">
@@ -9618,12 +9618,12 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>Biodiversity Conservation Hotspot</t>
+          <t>land conservation</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C613" t="n">
@@ -9633,7 +9633,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>land conservation</t>
+          <t>poverty alleviation</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
@@ -9648,12 +9648,12 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>poverty alleviation</t>
+          <t>tropical regions</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C615" t="n">
@@ -9663,12 +9663,12 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>tropical regions</t>
+          <t>local residents</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C616" t="n">
@@ -9678,7 +9678,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>local residents</t>
+          <t>target tree</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
@@ -9693,12 +9693,12 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>target tree</t>
+          <t>upper canopy height</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C618" t="n">
@@ -9708,7 +9708,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>upper canopy height</t>
+          <t>slope inclination</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
@@ -9723,7 +9723,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>slope inclination</t>
+          <t>slope aspect</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
@@ -9738,7 +9738,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>slope aspect</t>
+          <t>physical</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
@@ -9753,7 +9753,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>physical</t>
+          <t>chemical defence</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
@@ -9768,7 +9768,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>chemical defence</t>
+          <t>defence trait</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
@@ -9783,12 +9783,12 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>defence trait</t>
+          <t>phylogenetic non-independence</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C624" t="n">
@@ -9798,12 +9798,12 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>phylogenetic non-independence</t>
+          <t>pitfall trap</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C625" t="n">
@@ -9813,22 +9813,22 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>pitfall trap</t>
+          <t>column</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C626" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>column</t>
+          <t>columns</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
@@ -9837,18 +9837,18 @@
         </is>
       </c>
       <c r="C627" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>columns</t>
+          <t>data set</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C628" t="n">
@@ -9858,52 +9858,52 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>data set</t>
+          <t>BA14</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C629" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>BA14</t>
+          <t>VT</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C630" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>VT</t>
+          <t>VT Biodiversity Project</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C631" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>VT Biodiversity Project</t>
+          <t>Plant and Animal Species Atlas</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
@@ -9918,27 +9918,27 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>Plant and Animal Species Atlas</t>
+          <t>Link to Metadata</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C633" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>Link to Metadata</t>
+          <t>vascular plants</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C634" t="n">
@@ -9948,7 +9948,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>vascular plants</t>
+          <t>ferns</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
@@ -9963,7 +9963,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>ferns</t>
+          <t>Insect Herbivore Microbiome</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
@@ -9978,12 +9978,12 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>Insect Herbivore Microbiome</t>
+          <t>Biomass-Degrading Capacity</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C637" t="n">
@@ -9993,12 +9993,12 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>Biomass-Degrading Capacity</t>
+          <t>plant cell walls</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C638" t="n">
@@ -10008,12 +10008,12 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>plant cell walls</t>
+          <t>symbiotic associations</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C639" t="n">
@@ -10023,12 +10023,12 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>symbiotic associations</t>
+          <t>lignocellulolytic microbes</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C640" t="n">
@@ -10038,12 +10038,12 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>lignocellulolytic microbes</t>
+          <t>splashcups</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C641" t="n">
@@ -10053,7 +10053,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>splashcups</t>
+          <t>Woody debris type</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
@@ -10062,28 +10062,28 @@
         </is>
       </c>
       <c r="C642" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>Woody debris type</t>
+          <t>positioning information</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C643" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>positioning information</t>
+          <t>categories</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
@@ -10098,12 +10098,12 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>categories</t>
+          <t>Corsica Island</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C645" t="n">
@@ -10113,12 +10113,12 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>Corsica Island</t>
+          <t>plant biodiversity</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C646" t="n">
@@ -10128,37 +10128,37 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>plant biodiversity</t>
+          <t>Anthropocene</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C647" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>Anthropocene</t>
+          <t>regional landscape</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C648" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>regional landscape</t>
+          <t>human systems</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
@@ -10173,22 +10173,22 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>human systems</t>
+          <t>CSPs</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C650" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>CSPs</t>
+          <t>Urban Park Ranger</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
@@ -10197,18 +10197,18 @@
         </is>
       </c>
       <c r="C651" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>Urban Park Ranger</t>
+          <t>Animal Condition</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C652" t="n">
@@ -10218,12 +10218,12 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>Animal Condition</t>
+          <t>mutualistic ant–hemipteran interactions</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C653" t="n">
@@ -10233,42 +10233,42 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>mutualistic ant–hemipteran interactions</t>
+          <t>Tree or shrub</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C654" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>Tree or shrub</t>
+          <t>site plot name</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C655" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>site plot name</t>
+          <t>row</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C656" t="n">
@@ -10278,12 +10278,12 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>row</t>
+          <t>North</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C657" t="n">
@@ -10293,7 +10293,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>west</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
@@ -10308,12 +10308,12 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>west</t>
+          <t>fetidin/lysenins</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C659" t="n">
@@ -10323,12 +10323,12 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>fetidin/lysenins</t>
+          <t>E. fetida</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C660" t="n">
@@ -10338,7 +10338,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>E. fetida</t>
+          <t>compost microbiota</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
@@ -10353,12 +10353,12 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>compost microbiota</t>
+          <t>gene expression</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C662" t="n">
@@ -10368,7 +10368,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>gene expression</t>
+          <t>regulation</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
@@ -10383,7 +10383,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>regulation</t>
+          <t>expression</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
@@ -10398,12 +10398,12 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>expression</t>
+          <t>species number</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C665" t="n">
@@ -10413,7 +10413,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>species number</t>
+          <t>carbon footprint</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
@@ -10428,12 +10428,12 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>carbon footprint</t>
+          <t>stratum stratum</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C667" t="n">
@@ -10443,12 +10443,12 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>stratum stratum</t>
+          <t>biodiversity changes</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C668" t="n">
@@ -10458,12 +10458,12 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>biodiversity changes</t>
+          <t>human populations</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C669" t="n">
@@ -10473,12 +10473,12 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>human populations</t>
+          <t>BDE-209</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C670" t="n">
@@ -10488,12 +10488,12 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>BDE-209</t>
+          <t>meta-analysis</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C671" t="n">
@@ -10503,12 +10503,12 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>meta-analysis</t>
+          <t>retention forestry</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C672" t="n">
@@ -10518,12 +10518,12 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>retention forestry</t>
+          <t>harvesting</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C673" t="n">
@@ -10533,7 +10533,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>harvesting</t>
+          <t>impacts</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
@@ -10548,7 +10548,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>impacts</t>
+          <t>forest dynamics</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
@@ -10563,12 +10563,12 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>forest dynamics</t>
+          <t>biodiversity structure</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C676" t="n">
@@ -10578,12 +10578,12 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>biodiversity structure</t>
+          <t>annual mortality rate</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C677" t="n">
@@ -10593,12 +10593,12 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>annual mortality rate</t>
+          <t>species abundance distribution</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C678" t="n">
@@ -10608,12 +10608,12 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>species abundance distribution</t>
+          <t>species–area relationship</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C679" t="n">
@@ -10623,12 +10623,12 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>species–area relationship</t>
+          <t>faction</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C680" t="n">
@@ -10638,7 +10638,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>faction</t>
+          <t>functional groups</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
@@ -10653,7 +10653,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>functional groups</t>
+          <t>target group</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
@@ -10668,7 +10668,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>target group</t>
+          <t>ant–hemipteran</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
@@ -10683,12 +10683,12 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>ant–hemipteran</t>
+          <t>interactions</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C684" t="n">
@@ -10698,12 +10698,12 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>interactions</t>
+          <t>German Centre</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C685" t="n">
@@ -10713,7 +10713,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>German Centre</t>
+          <t>Deutscher Platz</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
@@ -10728,7 +10728,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>Deutscher Platz</t>
+          <t>Institute of Ecology</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
@@ -10743,7 +10743,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>Institute of Ecology</t>
+          <t>Leuphana University</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
@@ -10758,7 +10758,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>Leuphana University</t>
+          <t>Lueneburg</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
@@ -10773,7 +10773,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>Lueneburg</t>
+          <t>Scharnhorststr</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
@@ -10788,12 +10788,12 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>Scharnhorststr</t>
+          <t>bacterial diversity</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C691" t="n">
@@ -10803,12 +10803,12 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>bacterial diversity</t>
+          <t>biochemical carbon cycling</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C692" t="n">
@@ -10818,12 +10818,12 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>biochemical carbon cycling</t>
+          <t>barren saline soils</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C693" t="n">
@@ -10833,12 +10833,12 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>barren saline soils</t>
+          <t>study</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C694" t="n">
@@ -10848,12 +10848,12 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>study</t>
+          <t>community metrics</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C695" t="n">
@@ -10863,12 +10863,12 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>community metrics</t>
+          <t>effects</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C696" t="n">
@@ -10878,12 +10878,12 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>effects</t>
+          <t>barcode data</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C697" t="n">
@@ -10893,7 +10893,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>barcode data</t>
+          <t>adult genitalia variation</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
@@ -10908,7 +10908,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>adult genitalia variation</t>
+          <t>caterpillar ecology</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
@@ -10923,7 +10923,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>caterpillar ecology</t>
+          <t>ppm</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
@@ -10938,7 +10938,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>ppm</t>
+          <t>st_dev_p_bicar_ppm</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
@@ -10953,12 +10953,12 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>st_dev_p_bicar_ppm</t>
+          <t>data/p_bicar.csv</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C702" t="n">
@@ -10968,42 +10968,42 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>data/p_bicar.csv</t>
+          <t>vegetation_class</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C703" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>vegetation_class</t>
+          <t>Vegetation Class</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C704" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>Vegetation Class</t>
+          <t>dir_quad</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C705" t="n">
@@ -11013,7 +11013,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>dir_quad</t>
+          <t>DIR</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
@@ -11028,12 +11028,12 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>DIR</t>
+          <t>lithology classes</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C707" t="n">
@@ -11043,7 +11043,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>lithology classes</t>
+          <t>lithologies</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
@@ -11058,12 +11058,12 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>lithologies</t>
+          <t>distribution</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C709" t="n">
@@ -11073,12 +11073,12 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>distribution</t>
+          <t>vegetation types</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C710" t="n">
@@ -11088,7 +11088,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>vegetation types</t>
+          <t>Kruckeberg</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
@@ -11103,12 +11103,12 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>Kruckeberg</t>
+          <t>biodiversity-ecosystem function relationships</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C712" t="n">
@@ -11118,12 +11118,12 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>biodiversity-ecosystem function relationships</t>
+          <t>km2</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C713" t="n">
@@ -11133,12 +11133,12 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>km2</t>
+          <t>lower bathyal habitat</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C714" t="n">
@@ -11148,12 +11148,12 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>lower bathyal habitat</t>
+          <t>m</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C715" t="n">
@@ -11163,12 +11163,12 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>North Atlantic</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C716" t="n">
@@ -11178,12 +11178,12 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>North Atlantic</t>
+          <t>sediment substrate</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C717" t="n">
@@ -11193,12 +11193,12 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>sediment substrate</t>
+          <t>habitat heterogeneity</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C718" t="n">
@@ -11208,12 +11208,12 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>habitat heterogeneity</t>
+          <t>microbial biomass</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C719" t="n">
@@ -11223,12 +11223,12 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>microbial biomass</t>
+          <t>bioturbation</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C720" t="n">
@@ -11238,30 +11238,15 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>bioturbation</t>
+          <t>soil layers</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C721" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="722">
-      <c r="A722" t="inlineStr">
-        <is>
-          <t>soil layers</t>
-        </is>
-      </c>
-      <c r="B722" t="inlineStr">
-        <is>
-          <t>ENVIRONMENT</t>
-        </is>
-      </c>
-      <c r="C722" t="n">
         <v>1</v>
       </c>
     </row>
